--- a/ANEXOS/Casos_de_Uso_v.0.3.xlsx
+++ b/ANEXOS/Casos_de_Uso_v.0.3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Casos de USO</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Completar vuelta al tablero.</t>
   </si>
   <si>
-    <t>Quedar en casilla especial (arca comunal, casualidad).</t>
-  </si>
-  <si>
-    <t>Cobrar.</t>
-  </si>
-  <si>
     <t>Licitar hipoteca.</t>
   </si>
   <si>
@@ -92,19 +86,7 @@
     <t>Conseguir Pares, Consecución de Pares</t>
   </si>
   <si>
-    <t>Compra de propiedad, de casa o hotel</t>
-  </si>
-  <si>
-    <t>Comprar bien raíz</t>
-  </si>
-  <si>
     <t>Negociar</t>
-  </si>
-  <si>
-    <t>Pago de Alquiler, impuesto, multa</t>
-  </si>
-  <si>
-    <t>Acciòn de Pago</t>
   </si>
   <si>
     <t>compra casas (banco), compra hoteles (banco)</t>
@@ -137,15 +119,9 @@
     <t>Dinero extra Jugador</t>
   </si>
   <si>
-    <t>Lanzar dados</t>
-  </si>
-  <si>
     <t>Venta de propiedad, de casa o hotel</t>
   </si>
   <si>
-    <t>Vender bien raìz  a banco (1/2)</t>
-  </si>
-  <si>
     <t>Revisar si entra como caso de uso</t>
   </si>
   <si>
@@ -170,9 +146,6 @@
     <t>iniciar sesion con un perfil</t>
   </si>
   <si>
-    <t>crera partida</t>
-  </si>
-  <si>
     <t>eliminar partida</t>
   </si>
   <si>
@@ -255,6 +228,18 @@
   </si>
   <si>
     <t xml:space="preserve">NESTOR </t>
+  </si>
+  <si>
+    <t>caer en casilla especial (arca comunal, casualidad).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vender bien raìz  a banco </t>
+  </si>
+  <si>
+    <t>crear partida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobrar Cover </t>
   </si>
 </sst>
 </file>
@@ -413,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -445,6 +430,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:L59"/>
+  <dimension ref="B3:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -771,20 +759,20 @@
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -796,18 +784,18 @@
       <c r="G5" s="16"/>
       <c r="K5" s="19"/>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="13"/>
@@ -826,7 +814,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J7" s="21"/>
     </row>
@@ -835,12 +823,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3"/>
       <c r="F8" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="16"/>
     </row>
@@ -848,7 +836,7 @@
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6"/>
@@ -866,7 +854,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
       <c r="F10" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
@@ -893,12 +881,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
@@ -907,17 +897,15 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="13" t="s">
-        <v>26</v>
+      <c r="F13" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
@@ -926,14 +914,12 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13"/>
       <c r="G14" s="16"/>
@@ -943,16 +929,14 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -960,10 +944,10 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="3"/>
@@ -975,12 +959,14 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="13"/>
       <c r="G17" s="16"/>
@@ -990,12 +976,14 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="13"/>
       <c r="G18" s="16"/>
@@ -1005,16 +993,14 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -1022,16 +1008,16 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3">
-        <v>15</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1039,14 +1025,14 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -1054,16 +1040,16 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -1071,31 +1057,33 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="3">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="22">
+        <v>21</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -1103,13 +1091,13 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="22">
-        <v>21</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -1120,13 +1108,13 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -1137,414 +1125,385 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="22">
-        <v>27</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="22">
-        <v>28</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="22">
-        <v>29</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="22">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="22">
-        <v>37</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="22">
-        <v>38</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="22">
-        <v>39</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="22">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="22">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="22">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="22">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="22">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="22">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="22">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="22">
-        <v>48</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>64</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C52" s="22"/>
       <c r="D52" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="22">
-        <v>49</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>65</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C53" s="22"/>
       <c r="D53" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="22">
-        <v>50</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>69</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="22">
-        <v>51</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22" t="s">
-        <v>69</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="22">
-        <v>52</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22" t="s">
-        <v>69</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="22">
-        <v>53</v>
-      </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="22">
-        <v>54</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="22">
         <v>55</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
